--- a/CLEAN/MaySales2024_clean.xlsx
+++ b/CLEAN/MaySales2024_clean.xlsx
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0012566</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -602,7 +602,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0012567</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -672,7 +672,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0012568</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -746,7 +746,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0012569</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -816,7 +816,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0012570</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -886,7 +886,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0012571</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0012572</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1026,7 +1026,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0012573</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1096,7 +1096,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0012574</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1166,7 +1166,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0012575</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1236,7 +1236,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0012576</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1306,7 +1306,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0012577</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1380,7 +1380,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0012578</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1450,7 +1450,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0012579</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1524,7 +1524,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0012580</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1594,7 +1594,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0012581</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1664,7 +1664,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0012582</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1734,7 +1734,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0012583</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1808,7 +1808,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0012584</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1878,7 +1878,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0012585</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1952,7 +1952,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0012586</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2022,7 +2022,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0012587</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2092,7 +2092,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0012588</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2162,7 +2162,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0012589</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2236,7 +2236,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0012590</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2306,7 +2306,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0012591</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2380,7 +2380,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0012592</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2450,7 +2450,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0012593</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2520,7 +2520,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0012594</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2590,7 +2590,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0012595</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2660,7 +2660,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0012596</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2730,7 +2730,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0012597</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2800,7 +2800,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0012598</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2870,7 +2870,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0012599</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2940,7 +2940,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0012600</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3010,7 +3010,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0012601</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3080,7 +3080,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0012602</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3150,7 +3150,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0012603</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3220,7 +3220,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0012604</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3290,7 +3290,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0012605</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3360,7 +3360,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0012606</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3430,7 +3430,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0012607</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3500,7 +3500,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0012608</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3570,7 +3570,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0012609</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3640,7 +3640,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0012610</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3714,7 +3714,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0012611</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3784,7 +3784,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0012612</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3854,7 +3854,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0012613</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3924,7 +3924,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0012614</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3994,7 +3994,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0012615</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4064,7 +4064,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0012616</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4134,7 +4134,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0012617</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4204,7 +4204,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0012618</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4278,7 +4278,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0012619</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4348,7 +4348,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0012620</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4418,7 +4418,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0012621</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4488,7 +4488,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0012622</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4558,7 +4558,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0012623</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4628,7 +4628,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0012624</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4698,7 +4698,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0012625</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4768,7 +4768,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0012626</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4838,7 +4838,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0012627</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4908,7 +4908,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0012628</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4978,7 +4978,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0012629</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -5052,7 +5052,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0012630</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -5122,7 +5122,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0012631</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5192,7 +5192,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0012632</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5262,7 +5262,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0012633</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5332,7 +5332,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0012634</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5402,7 +5402,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0012635</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5472,7 +5472,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0012636</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5542,7 +5542,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0012637</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5612,7 +5612,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0012638</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5682,7 +5682,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0012639</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5752,7 +5752,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0012640</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5822,7 +5822,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0012641</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5896,7 +5896,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0012642</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5966,7 +5966,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0012643</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -6036,7 +6036,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0012644</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -6106,7 +6106,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0012645</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -6176,7 +6176,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0012646</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6250,7 +6250,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0012647</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6320,7 +6320,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0012648</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6390,7 +6390,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0012649</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6460,7 +6460,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0012650</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6530,7 +6530,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0012651</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6600,7 +6600,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0012652</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6670,7 +6670,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0012653</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6744,7 +6744,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0012654</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6814,7 +6814,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0012655</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6884,7 +6884,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0012656</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6954,7 +6954,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0012657</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -7024,7 +7024,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0012658</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -7094,7 +7094,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0012659</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -7164,7 +7164,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0012660</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7234,7 +7234,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0012661</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7304,7 +7304,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0012662</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7378,7 +7378,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0012663</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7448,7 +7448,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0012664</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7518,7 +7518,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0012665</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7588,7 +7588,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0012666</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7658,7 +7658,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0012667</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7728,7 +7728,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0012668</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7802,7 +7802,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0012669</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7876,7 +7876,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0012670</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7950,7 +7950,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0012671</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -8020,7 +8020,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0012672</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -8094,7 +8094,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0012673</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -8164,7 +8164,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0012674</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -8234,7 +8234,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0012675</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8304,7 +8304,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0012676</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8374,7 +8374,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0012677</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8444,7 +8444,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0012678</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8514,7 +8514,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0012679</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8584,7 +8584,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0012680</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8654,7 +8654,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0012681</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8724,7 +8724,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0012682</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8794,7 +8794,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0012683</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8864,7 +8864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0012684</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8934,7 +8934,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0012685</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -9004,7 +9004,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0012686</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -9074,7 +9074,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0012687</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -9144,7 +9144,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0012688</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -9218,7 +9218,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0012689</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -9288,7 +9288,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0012690</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9358,7 +9358,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0012691</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -9428,7 +9428,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0012692</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -9498,7 +9498,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0012693</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -9568,7 +9568,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0012694</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -9638,7 +9638,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0012695</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -9708,7 +9708,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0012696</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9778,7 +9778,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0012697</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9848,7 +9848,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0012698</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9918,7 +9918,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0012699</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9992,7 +9992,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0012700</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -10062,7 +10062,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0012701</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -10132,7 +10132,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0012702</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -10202,7 +10202,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0012703</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -10272,7 +10272,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0012704</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -10342,7 +10342,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0012705</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -10412,7 +10412,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0012706</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -10482,7 +10482,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0012707</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -10552,7 +10552,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0012708</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -10622,7 +10622,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0012709</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -10692,7 +10692,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0012710</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -10762,7 +10762,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0012711</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -10832,7 +10832,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0012712</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -10902,7 +10902,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0012713</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -10972,7 +10972,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0012714</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -11042,7 +11042,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0012715</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -11112,7 +11112,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0012716</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -11182,7 +11182,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0012717</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -11256,7 +11256,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0012718</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -11326,7 +11326,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0012719</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -11400,7 +11400,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0012720</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -11470,7 +11470,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0012721</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -11544,7 +11544,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0012722</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -11614,7 +11614,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0012723</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -11684,7 +11684,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0012724</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -11754,7 +11754,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0012725</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -11828,7 +11828,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0012726</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -11898,7 +11898,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0012727</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -11968,7 +11968,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0012728</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -12042,7 +12042,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0012729</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -12112,7 +12112,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0012730</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -12186,7 +12186,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0012731</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -12256,7 +12256,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0012732</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -12326,7 +12326,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0012733</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -12396,7 +12396,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0012734</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -12466,7 +12466,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0012735</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -12540,7 +12540,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0012736</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -12610,7 +12610,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0012737</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -12680,7 +12680,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0012738</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -12750,7 +12750,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0012739</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -12820,7 +12820,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0012740</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -12894,7 +12894,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0012741</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -12964,7 +12964,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0012742</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -13034,7 +13034,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0012743</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -13104,7 +13104,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0012744</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -13178,7 +13178,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0012745</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -13248,7 +13248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0012746</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -13318,7 +13318,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0012747</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -13388,7 +13388,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0012748</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -13458,7 +13458,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0012749</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -13532,7 +13532,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0012750</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -13602,7 +13602,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0012751</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -13672,7 +13672,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0012752</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -13742,7 +13742,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0012753</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -13812,7 +13812,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0012754</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -13882,7 +13882,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0012755</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -13952,7 +13952,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0012756</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -14022,7 +14022,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0012757</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -14092,7 +14092,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0012758</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -14162,7 +14162,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0012759</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -14232,7 +14232,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0012760</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -14302,7 +14302,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0012761</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -14372,7 +14372,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0012762</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -14442,7 +14442,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0012763</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -14512,7 +14512,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0012764</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -14582,7 +14582,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0012765</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -14652,7 +14652,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0012766</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -14722,7 +14722,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0012767</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -14792,7 +14792,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0012768</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -14866,7 +14866,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0012769</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -14940,7 +14940,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0012770</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -15010,7 +15010,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0012771</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -15080,7 +15080,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0012772</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -15150,7 +15150,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0012773</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -15220,7 +15220,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0012774</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -15294,7 +15294,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0012775</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -15368,7 +15368,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0012776</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -15438,7 +15438,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0012777</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -15508,7 +15508,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0012778</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -15582,7 +15582,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0012779</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -15652,7 +15652,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0012780</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -15722,7 +15722,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0012781</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -15792,7 +15792,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0012782</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -15862,7 +15862,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0012783</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -15936,7 +15936,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0012784</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -16006,7 +16006,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0012785</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -16076,7 +16076,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0012786</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -16146,7 +16146,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0012787</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -16220,7 +16220,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0012788</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -16290,7 +16290,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0012789</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -16360,7 +16360,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0012790</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -16430,7 +16430,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0012791</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -16500,7 +16500,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0012792</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -16570,7 +16570,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0012793</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -16640,7 +16640,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0012794</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -16710,7 +16710,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0012795</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -16780,7 +16780,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0012796</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -16850,7 +16850,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0012797</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -16920,7 +16920,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0012798</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -16990,7 +16990,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0012799</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -17060,7 +17060,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0012800</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -17130,7 +17130,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0012801</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -17200,7 +17200,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0012802</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -17270,7 +17270,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0012803</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -17344,7 +17344,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0012804</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -17414,7 +17414,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0012805</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -17484,7 +17484,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0012806</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -17554,7 +17554,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0012807</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -17624,7 +17624,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0012808</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -17694,7 +17694,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0012809</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -17764,7 +17764,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0012810</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -17834,7 +17834,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0012811</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -17904,7 +17904,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0012812</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -17974,7 +17974,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0012813</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -18044,7 +18044,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0012814</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -18114,7 +18114,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0012815</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -18184,7 +18184,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0012816</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -18254,7 +18254,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0012817</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -18324,7 +18324,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0012818</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -18394,7 +18394,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0012819</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -18464,7 +18464,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0012820</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -18534,7 +18534,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0012821</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -18604,7 +18604,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0012822</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -18678,7 +18678,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0012823</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -18748,7 +18748,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0012824</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -18818,7 +18818,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0012825</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -18888,7 +18888,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0012826</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -18958,7 +18958,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0012827</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -19028,7 +19028,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0012828</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -19098,7 +19098,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0012829</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -19168,7 +19168,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0012830</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -19238,7 +19238,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0012831</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -19312,7 +19312,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0012832</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -19382,7 +19382,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0012833</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -19456,7 +19456,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0012834</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -19526,7 +19526,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0012835</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -19596,7 +19596,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0012836</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -19666,7 +19666,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0012837</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -19736,7 +19736,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0012838</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -19810,7 +19810,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0012839</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -19880,7 +19880,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0012840</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -19950,7 +19950,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0012841</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -20020,7 +20020,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0012842</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -20090,7 +20090,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0012843</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -20160,7 +20160,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0012844</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -20230,7 +20230,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0012845</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -20300,7 +20300,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0012846</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -20370,7 +20370,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0012847</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -20440,7 +20440,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0012848</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -20510,7 +20510,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0012849</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -20580,7 +20580,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0012850</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -20650,7 +20650,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0012851</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -20720,7 +20720,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0012852</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -20790,7 +20790,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0012853</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -20860,7 +20860,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0012854</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -20930,7 +20930,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0012855</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -21000,7 +21000,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0012856</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -21070,7 +21070,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0012857</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -21140,7 +21140,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0012858</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -21210,7 +21210,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0012859</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -21284,7 +21284,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0012860</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -21354,7 +21354,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0012861</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -21424,7 +21424,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0012862</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -21494,7 +21494,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0012863</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -21564,7 +21564,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0012864</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -21634,7 +21634,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0012865</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -21708,7 +21708,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0012866</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -21778,7 +21778,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0012867</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -21848,7 +21848,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0012868</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -21918,7 +21918,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0012869</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -21988,7 +21988,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0012870</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -22058,7 +22058,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0012871</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -22128,7 +22128,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0012872</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -22202,7 +22202,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0012873</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -22272,7 +22272,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0012874</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -22342,7 +22342,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0012875</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -22412,7 +22412,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0012876</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -22482,7 +22482,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0012877</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -22552,7 +22552,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0012878</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -22626,7 +22626,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0012879</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -22700,7 +22700,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0012880</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -22770,7 +22770,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0012881</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -22844,7 +22844,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0012882</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -22914,7 +22914,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0012883</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -22984,7 +22984,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0012884</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -23054,7 +23054,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0012885</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -23124,7 +23124,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0012886</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -23198,7 +23198,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0012887</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -23268,7 +23268,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0012888</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -23342,7 +23342,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0012889</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -23412,7 +23412,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0012890</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -23482,7 +23482,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0012891</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -23552,7 +23552,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0012892</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -23622,7 +23622,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0012893</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -23692,7 +23692,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0012894</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -23766,7 +23766,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0012895</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -23836,7 +23836,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0012896</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -23906,7 +23906,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0012897</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -23980,7 +23980,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0012898</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -24054,7 +24054,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0012899</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -24124,7 +24124,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0012900</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -24194,7 +24194,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0012901</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -24264,7 +24264,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0012902</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -24334,7 +24334,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0012903</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -24404,7 +24404,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0012904</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -24474,7 +24474,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0012905</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -24544,7 +24544,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0012906</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -24618,7 +24618,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0012907</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -24688,7 +24688,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0012908</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -24762,7 +24762,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0012909</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -24832,7 +24832,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0012910</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -24902,7 +24902,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0012911</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -24972,7 +24972,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0012912</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -25042,7 +25042,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0012913</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -25112,7 +25112,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0012914</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -25182,7 +25182,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0012915</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -25252,7 +25252,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0012916</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -25322,7 +25322,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0012917</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -25392,7 +25392,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0012918</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -25462,7 +25462,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0012919</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -25532,7 +25532,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0012920</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -25602,7 +25602,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0012921</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -25676,7 +25676,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0012922</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -25746,7 +25746,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0012923</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -25816,7 +25816,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0012924</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -25886,7 +25886,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0012925</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -25960,7 +25960,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0012926</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -26030,7 +26030,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0012927</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -26100,7 +26100,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0012928</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -26170,7 +26170,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0012929</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -26240,7 +26240,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0012930</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -26310,7 +26310,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0012931</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -26384,7 +26384,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0012932</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -26454,7 +26454,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0012933</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -26524,7 +26524,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0012934</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -26594,7 +26594,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0012935</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -26664,7 +26664,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0012936</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -26738,7 +26738,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0012937</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -26812,7 +26812,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0012938</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -26886,7 +26886,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0012939</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -26956,7 +26956,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0012940</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -27030,7 +27030,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0012941</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -27100,7 +27100,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0012942</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -27170,7 +27170,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0012943</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -27240,7 +27240,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0012944</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -27310,7 +27310,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0012945</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -27384,7 +27384,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0012946</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -27454,7 +27454,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0012947</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -27524,7 +27524,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0012948</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -27594,7 +27594,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0012949</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -27664,7 +27664,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0012950</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -27734,7 +27734,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0012951</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -27804,7 +27804,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0012952</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -27874,7 +27874,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0012953</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -27944,7 +27944,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0012954</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -28014,7 +28014,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0012955</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -28084,7 +28084,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0012956</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -28154,7 +28154,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0012957</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -28224,7 +28224,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0012958</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -28294,7 +28294,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0012959</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -28364,7 +28364,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0012960</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -28434,7 +28434,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0012961</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -28504,7 +28504,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0012962</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -28574,7 +28574,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0012963</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -28644,7 +28644,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0012964</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -28714,7 +28714,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0012965</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -28788,7 +28788,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0012966</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -28858,7 +28858,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0012967</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -28932,7 +28932,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0012968</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -29002,7 +29002,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0012969</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -29072,7 +29072,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0012970</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -29142,7 +29142,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0012971</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -29212,7 +29212,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0012972</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -29282,7 +29282,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0012973</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -29352,7 +29352,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0012974</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -29426,7 +29426,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0012975</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -29496,7 +29496,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0012976</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -29566,7 +29566,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0012977</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -29640,7 +29640,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0012978</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -29710,7 +29710,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0012979</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -29780,7 +29780,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0012980</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -29850,7 +29850,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0012981</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -29920,7 +29920,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0012982</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -29990,7 +29990,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0012983</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -30060,7 +30060,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0012984</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -30130,7 +30130,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0012985</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -30200,7 +30200,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0012986</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -30270,7 +30270,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0012987</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -30340,7 +30340,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0012988</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -30414,7 +30414,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0012989</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -30484,7 +30484,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0012990</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -30554,7 +30554,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0012991</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -30624,7 +30624,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0012992</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -30694,7 +30694,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0012993</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -30764,7 +30764,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0012994</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -30834,7 +30834,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0012995</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -30908,7 +30908,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0012996</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -30982,7 +30982,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0012997</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -31052,7 +31052,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0012998</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -31122,7 +31122,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0012999</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -31192,7 +31192,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0013000</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -31262,7 +31262,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0013001</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -31332,7 +31332,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0013002</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -31406,7 +31406,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0013003</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -31476,7 +31476,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0013004</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -31546,7 +31546,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0013005</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -31620,7 +31620,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0013006</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -31690,7 +31690,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0013007</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -31760,7 +31760,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0013008</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -31830,7 +31830,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0013009</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -31900,7 +31900,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000445</t>
+          <t>ORD_0013010</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -31974,7 +31974,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000446</t>
+          <t>ORD_0013011</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -32044,7 +32044,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000447</t>
+          <t>ORD_0013012</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -32114,7 +32114,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000448</t>
+          <t>ORD_0013013</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -32188,7 +32188,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000449</t>
+          <t>ORD_0013014</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -32258,7 +32258,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0013015</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -32328,7 +32328,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000451</t>
+          <t>ORD_0013016</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -32398,7 +32398,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000452</t>
+          <t>ORD_0013017</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -32468,7 +32468,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000453</t>
+          <t>ORD_0013018</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -32538,7 +32538,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000454</t>
+          <t>ORD_0013019</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -32608,7 +32608,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000455</t>
+          <t>ORD_0013020</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -32678,7 +32678,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000456</t>
+          <t>ORD_0013021</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -32748,7 +32748,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000457</t>
+          <t>ORD_0013022</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -32818,7 +32818,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000458</t>
+          <t>ORD_0013023</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -32888,7 +32888,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000459</t>
+          <t>ORD_0013024</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -32958,7 +32958,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000460</t>
+          <t>ORD_0013025</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -33028,7 +33028,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000461</t>
+          <t>ORD_0013026</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -33098,7 +33098,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000462</t>
+          <t>ORD_0013027</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -33172,7 +33172,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000463</t>
+          <t>ORD_0013028</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -33246,7 +33246,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000464</t>
+          <t>ORD_0013029</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -33316,7 +33316,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000465</t>
+          <t>ORD_0013030</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -33390,7 +33390,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000466</t>
+          <t>ORD_0013031</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -33460,7 +33460,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000467</t>
+          <t>ORD_0013032</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -33530,7 +33530,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000468</t>
+          <t>ORD_0013033</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -33600,7 +33600,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000469</t>
+          <t>ORD_0013034</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -33670,7 +33670,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000470</t>
+          <t>ORD_0013035</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -33740,7 +33740,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000471</t>
+          <t>ORD_0013036</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -33810,7 +33810,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000472</t>
+          <t>ORD_0013037</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -33880,7 +33880,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000473</t>
+          <t>ORD_0013038</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -33950,7 +33950,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000474</t>
+          <t>ORD_0013039</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -34020,7 +34020,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000475</t>
+          <t>ORD_0013040</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -34090,7 +34090,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000476</t>
+          <t>ORD_0013041</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -34160,7 +34160,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000477</t>
+          <t>ORD_0013042</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -34230,7 +34230,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000478</t>
+          <t>ORD_0013043</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -34304,7 +34304,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000479</t>
+          <t>ORD_0013044</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -34374,7 +34374,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000480</t>
+          <t>ORD_0013045</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -34444,7 +34444,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000481</t>
+          <t>ORD_0013046</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -34514,7 +34514,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000482</t>
+          <t>ORD_0013047</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -34584,7 +34584,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000483</t>
+          <t>ORD_0013048</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -34654,7 +34654,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000484</t>
+          <t>ORD_0013049</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -34724,7 +34724,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000485</t>
+          <t>ORD_0013050</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -34794,7 +34794,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000486</t>
+          <t>ORD_0013051</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -34864,7 +34864,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000487</t>
+          <t>ORD_0013052</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -34934,7 +34934,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000488</t>
+          <t>ORD_0013053</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -35004,7 +35004,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000489</t>
+          <t>ORD_0013054</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -35078,7 +35078,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000490</t>
+          <t>ORD_0013055</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -35148,7 +35148,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000491</t>
+          <t>ORD_0013056</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -35218,7 +35218,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000492</t>
+          <t>ORD_0013057</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -35288,7 +35288,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000493</t>
+          <t>ORD_0013058</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -35362,7 +35362,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000494</t>
+          <t>ORD_0013059</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -35432,7 +35432,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000495</t>
+          <t>ORD_0013060</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -35502,7 +35502,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000496</t>
+          <t>ORD_0013061</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -35572,7 +35572,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000497</t>
+          <t>ORD_0013062</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -35642,7 +35642,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000498</t>
+          <t>ORD_0013063</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -35712,7 +35712,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000499</t>
+          <t>ORD_0013064</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -35782,7 +35782,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000500</t>
+          <t>ORD_0013065</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -35852,7 +35852,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000501</t>
+          <t>ORD_0013066</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -35922,7 +35922,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000502</t>
+          <t>ORD_0013067</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -35992,7 +35992,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000503</t>
+          <t>ORD_0013068</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -36062,7 +36062,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000504</t>
+          <t>ORD_0013069</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -36132,7 +36132,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000505</t>
+          <t>ORD_0013070</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -36206,7 +36206,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000506</t>
+          <t>ORD_0013071</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -36276,7 +36276,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000507</t>
+          <t>ORD_0013072</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -36346,7 +36346,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000508</t>
+          <t>ORD_0013073</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -36420,7 +36420,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000509</t>
+          <t>ORD_0013074</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -36490,7 +36490,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000510</t>
+          <t>ORD_0013075</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -36560,7 +36560,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000511</t>
+          <t>ORD_0013076</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -36630,7 +36630,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000512</t>
+          <t>ORD_0013077</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -36700,7 +36700,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000513</t>
+          <t>ORD_0013078</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -36770,7 +36770,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000514</t>
+          <t>ORD_0013079</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -36840,7 +36840,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000515</t>
+          <t>ORD_0013080</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -36910,7 +36910,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000516</t>
+          <t>ORD_0013081</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -36980,7 +36980,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000517</t>
+          <t>ORD_0013082</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -37050,7 +37050,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ORD_0000518</t>
+          <t>ORD_0013083</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -37120,7 +37120,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ORD_0000519</t>
+          <t>ORD_0013084</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -37190,7 +37190,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ORD_0000520</t>
+          <t>ORD_0013085</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -37260,7 +37260,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ORD_0000521</t>
+          <t>ORD_0013086</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -37330,7 +37330,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ORD_0000522</t>
+          <t>ORD_0013087</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -37400,7 +37400,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ORD_0000523</t>
+          <t>ORD_0013088</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -37470,7 +37470,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ORD_0000524</t>
+          <t>ORD_0013089</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -37540,7 +37540,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ORD_0000525</t>
+          <t>ORD_0013090</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -37610,7 +37610,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ORD_0000526</t>
+          <t>ORD_0013091</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -37680,7 +37680,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ORD_0000527</t>
+          <t>ORD_0013092</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -37750,7 +37750,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ORD_0000528</t>
+          <t>ORD_0013093</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -37820,7 +37820,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ORD_0000529</t>
+          <t>ORD_0013094</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -37894,7 +37894,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ORD_0000530</t>
+          <t>ORD_0013095</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -37964,7 +37964,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORD_0000531</t>
+          <t>ORD_0013096</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -38034,7 +38034,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORD_0000532</t>
+          <t>ORD_0013097</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -38104,7 +38104,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ORD_0000533</t>
+          <t>ORD_0013098</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -38174,7 +38174,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ORD_0000534</t>
+          <t>ORD_0013099</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -38244,7 +38244,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ORD_0000535</t>
+          <t>ORD_0013100</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -38314,7 +38314,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ORD_0000536</t>
+          <t>ORD_0013101</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -38384,7 +38384,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ORD_0000537</t>
+          <t>ORD_0013102</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -38454,7 +38454,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ORD_0000538</t>
+          <t>ORD_0013103</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -38524,7 +38524,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ORD_0000539</t>
+          <t>ORD_0013104</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -38594,7 +38594,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ORD_0000540</t>
+          <t>ORD_0013105</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -38664,7 +38664,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ORD_0000541</t>
+          <t>ORD_0013106</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -38734,7 +38734,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ORD_0000542</t>
+          <t>ORD_0013107</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -38804,7 +38804,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ORD_0000543</t>
+          <t>ORD_0013108</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -38874,7 +38874,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ORD_0000544</t>
+          <t>ORD_0013109</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -38944,7 +38944,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORD_0000545</t>
+          <t>ORD_0013110</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -39018,7 +39018,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ORD_0000546</t>
+          <t>ORD_0013111</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -39092,7 +39092,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ORD_0000547</t>
+          <t>ORD_0013112</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -39162,7 +39162,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ORD_0000548</t>
+          <t>ORD_0013113</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -39232,7 +39232,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ORD_0000549</t>
+          <t>ORD_0013114</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -39302,7 +39302,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ORD_0000550</t>
+          <t>ORD_0013115</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -39372,7 +39372,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ORD_0000551</t>
+          <t>ORD_0013116</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -39442,7 +39442,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ORD_0000552</t>
+          <t>ORD_0013117</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -39512,7 +39512,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ORD_0000553</t>
+          <t>ORD_0013118</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -39582,7 +39582,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ORD_0000554</t>
+          <t>ORD_0013119</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -39652,7 +39652,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ORD_0000555</t>
+          <t>ORD_0013120</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -39722,7 +39722,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ORD_0000556</t>
+          <t>ORD_0013121</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -39792,7 +39792,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ORD_0000557</t>
+          <t>ORD_0013122</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -39862,7 +39862,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ORD_0000558</t>
+          <t>ORD_0013123</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -39932,7 +39932,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ORD_0000559</t>
+          <t>ORD_0013124</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -40006,7 +40006,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ORD_0000560</t>
+          <t>ORD_0013125</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -40076,7 +40076,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ORD_0000561</t>
+          <t>ORD_0013126</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -40150,7 +40150,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ORD_0000562</t>
+          <t>ORD_0013127</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -40220,7 +40220,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ORD_0000563</t>
+          <t>ORD_0013128</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -40290,7 +40290,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ORD_0000564</t>
+          <t>ORD_0013129</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -40360,7 +40360,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ORD_0000565</t>
+          <t>ORD_0013130</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -40430,7 +40430,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ORD_0000566</t>
+          <t>ORD_0013131</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -40500,7 +40500,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ORD_0000567</t>
+          <t>ORD_0013132</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -40570,7 +40570,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ORD_0000568</t>
+          <t>ORD_0013133</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -40644,7 +40644,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ORD_0000569</t>
+          <t>ORD_0013134</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -40714,7 +40714,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORD_0000570</t>
+          <t>ORD_0013135</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -40784,7 +40784,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0013136</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -40854,7 +40854,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ORD_0000572</t>
+          <t>ORD_0013137</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -40928,7 +40928,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ORD_0000573</t>
+          <t>ORD_0013138</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -40998,7 +40998,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ORD_0000574</t>
+          <t>ORD_0013139</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -41068,7 +41068,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ORD_0000575</t>
+          <t>ORD_0013140</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -41138,7 +41138,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>ORD_0000576</t>
+          <t>ORD_0013141</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -41208,7 +41208,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ORD_0000577</t>
+          <t>ORD_0013142</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -41278,7 +41278,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ORD_0000578</t>
+          <t>ORD_0013143</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -41348,7 +41348,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ORD_0000579</t>
+          <t>ORD_0013144</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -41418,7 +41418,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ORD_0000580</t>
+          <t>ORD_0013145</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -41488,7 +41488,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ORD_0000581</t>
+          <t>ORD_0013146</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -41558,7 +41558,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ORD_0000582</t>
+          <t>ORD_0013147</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -41628,7 +41628,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ORD_0000583</t>
+          <t>ORD_0013148</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -41702,7 +41702,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>ORD_0000584</t>
+          <t>ORD_0013149</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -41772,7 +41772,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ORD_0000585</t>
+          <t>ORD_0013150</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -41842,7 +41842,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ORD_0000586</t>
+          <t>ORD_0013151</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -41912,7 +41912,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ORD_0000587</t>
+          <t>ORD_0013152</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -41982,7 +41982,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ORD_0000588</t>
+          <t>ORD_0013153</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -42052,7 +42052,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ORD_0000589</t>
+          <t>ORD_0013154</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -42122,7 +42122,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ORD_0000590</t>
+          <t>ORD_0013155</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -42192,7 +42192,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ORD_0000591</t>
+          <t>ORD_0013156</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -42262,7 +42262,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>ORD_0000592</t>
+          <t>ORD_0013157</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -42332,7 +42332,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ORD_0000593</t>
+          <t>ORD_0013158</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -42402,7 +42402,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>ORD_0000594</t>
+          <t>ORD_0013159</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -42472,7 +42472,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ORD_0000595</t>
+          <t>ORD_0013160</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -42542,7 +42542,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>ORD_0000596</t>
+          <t>ORD_0013161</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -42612,7 +42612,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>ORD_0000597</t>
+          <t>ORD_0013162</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -42682,7 +42682,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0013163</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -42752,7 +42752,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>ORD_0000599</t>
+          <t>ORD_0013164</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -42826,7 +42826,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>ORD_0000600</t>
+          <t>ORD_0013165</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -42896,7 +42896,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>ORD_0000601</t>
+          <t>ORD_0013166</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -42966,7 +42966,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>ORD_0000602</t>
+          <t>ORD_0013167</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -43040,7 +43040,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>ORD_0000603</t>
+          <t>ORD_0013168</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -43110,7 +43110,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ORD_0000604</t>
+          <t>ORD_0013169</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -43180,7 +43180,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>ORD_0000605</t>
+          <t>ORD_0013170</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -43250,7 +43250,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>ORD_0000606</t>
+          <t>ORD_0013171</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -43320,7 +43320,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>ORD_0000607</t>
+          <t>ORD_0013172</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -43390,7 +43390,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>ORD_0000608</t>
+          <t>ORD_0013173</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -43464,7 +43464,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>ORD_0000609</t>
+          <t>ORD_0013174</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -43534,7 +43534,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>ORD_0000610</t>
+          <t>ORD_0013175</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -43604,7 +43604,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>ORD_0000611</t>
+          <t>ORD_0013176</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -43674,7 +43674,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>ORD_0000612</t>
+          <t>ORD_0013177</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -43744,7 +43744,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>ORD_0000613</t>
+          <t>ORD_0013178</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -43814,7 +43814,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>ORD_0000614</t>
+          <t>ORD_0013179</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -43884,7 +43884,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>ORD_0000615</t>
+          <t>ORD_0013180</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -43954,7 +43954,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>ORD_0000616</t>
+          <t>ORD_0013181</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -44024,7 +44024,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ORD_0000617</t>
+          <t>ORD_0013182</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -44094,7 +44094,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>ORD_0000618</t>
+          <t>ORD_0013183</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -44164,7 +44164,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>ORD_0000619</t>
+          <t>ORD_0013184</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -44238,7 +44238,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>ORD_0000620</t>
+          <t>ORD_0013185</t>
         </is>
       </c>
       <c r="B621" t="n">
